--- a/ig/10-enlevé-définition-statut-du-recrutement-recruitment-status/StructureDefinition-eclaire-therapeutic-area.xlsx
+++ b/ig/10-enlevé-définition-statut-du-recrutement-recruitment-status/StructureDefinition-eclaire-therapeutic-area.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T09:09:12+00:00</t>
+    <t>2023-07-10T10:05:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
